--- a/data/ES + technologies + fibre.xlsx
+++ b/data/ES + technologies + fibre.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="IkNGGfIMI27URZJFaCgdivMYZDDLep21PC1dwwURlW0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="wVdV1flVMpccqR334tt4JIeAs67aTteLkZJUblht7c8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>Authors</t>
   </si>
@@ -471,15 +471,6 @@
     <t>The digital entrepreneurship indicator (DEI), which combines individual and institutional data, is designed to chart the vitality of metropolitan areas in terms of digital entrepreneurship on a suburban scale. In this study, we apply it to the case of the Greater Paris Metropolitan area. Using geographically weighted regression, we explore the spatial heterogeneity of the effect of digital entrepreneurial ecosystems on the location quotient of information and communication technology firms with fewer than 10 employees. The results highlight a positive link between the DEI and the location quotient of small ICT firms. In particular, the aspects of both ATTitudes and CAPacities (i.e., urbanization economies, Human Development Index, density of incubators, accounting and financial services, and fiber optic coverage) appear to have a significant effect on a suburban scale.</t>
   </si>
   <si>
-    <t>Young, Stephen L.</t>
-  </si>
-  <si>
-    <t>What contributions are invasive plant species making to ecosystem services?</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Bharathi, Radhika; Muljadi, Timothea; Tyl, Catrin; Annor, George Amponsah</t>
   </si>
   <si>
@@ -624,42 +615,6 @@
     <t>Production agriculture has recently witnessed exponential growth in the use of UAS technology to obtain site-specific, real-time spectral reflectance data for the management of spatial and temporal variability in agricultural ecosystems. The integration of this novel technology and remotely piloted aerial application systems (RPAASs) for pest management requires data curation on spray pattern uniformity, droplet distribution and the operational factors governing such data. The effects of application height and ground speed on spray pattern uniformity and droplet spectra characteristics for four commercially available RPAAS platforms configured with four different payload capacities (5, 10, 15 and 20 L) and factory-supplied nozzles were investigated. Spray pattern was determined by a cotton string deposition analysis system. Spray droplets captured on water-sensitive paper cards were analyzed using a computer-based scanner system. The test results indicated that each RPAAS platform of varying payload capacity was able to produce an acceptable spray pattern. As the payload capacity increased, so did the effective swath. However, the effective swath was comparable between 15 and 20 L units. The theoretical spray application rate decreased with ground speed. The fundamental data reported here may provide guidance to aerial applicators and help in the furtherance of RPAASs as an effective pest management tool.</t>
   </si>
   <si>
-    <t>Parsons, Ira Lloyd</t>
-  </si>
-  <si>
-    <t>Animal Husbandry in the 21st Century: Application of Ecological Theory and Precision Technology to Inform Understanding of Modern Grazing Systems</t>
-  </si>
-  <si>
-    <t>Naranjo, Jose; Jimenez, Felipe; Castineira, Rodrigo; Gil, Mauro; Premebida, Cristiano; Serra, Pedro; Valejo, Alberto; Nashashibi, Fawzi; Magalhaes, Conceicao</t>
-  </si>
-  <si>
-    <t>Cross-Border interoperability for Cooperative, Connected and Automated Driving</t>
-  </si>
-  <si>
-    <t>Ghosh, Tapajyoti</t>
-  </si>
-  <si>
-    <t>Integrated Sustainability Assessment and Design of Processes, Supply Chains, Ecosystems and Economy Using Life Cycle Modeling Methods</t>
-  </si>
-  <si>
-    <t>Basty, Dieudonné Romaric</t>
-  </si>
-  <si>
-    <t>Impacts des Politiques Énergétiques sur la Sélection des Stratégies Durables de Bioraffinage Forestier</t>
-  </si>
-  <si>
-    <t>Saswattecha, Kanokwam</t>
-  </si>
-  <si>
-    <t>Improving Environmental Sustainability of Palm Oil Production in Thailand</t>
-  </si>
-  <si>
-    <t>Lohani, Sapana</t>
-  </si>
-  <si>
-    <t>Linking ecosystem services with state-and-transition models to evaluate rangeland management decisions</t>
-  </si>
-  <si>
     <t>Somerville, Chris</t>
   </si>
   <si>
@@ -676,24 +631,6 @@
   </si>
   <si>
     <t>This paper reviews the future directions and perspectives on the soil environmental researches in the 21century. Previously, the principal emphasis of soil environmental researches had put on the enhancement of food and fiber productions. Beside the basic function of soil, however, the societal needs on soil resources in the 21st century have demands for several environmental and social challenges, occurring regionally or globally. Typical global issues with which soil science should deal include food security with increasing agronomic production to meet the exploding world population growth, adaptation and mitigation of climate change, increase of the carbon sequestration, supply of the biomass and bioenergy, securing the water resource and quality, protection of environmental pollution, enhancing the biodiversity and ecosystem health, and developing the sustainable farming/cropping system that improve the use efficiency of water and agricultural resources. These challenges can be solved through the sustainable crop production intensification (SCPI) or plant welfare concept in which soil plays a key role in solving the abovementioned global issues. Through implementation of either concept, soil science can fulfill the goal of the modern agriculture which is the sustainable production of crops while maintaining or enhancing the ecosystem function, quality and health.Therefore, directions of the future soil environmental researches should lie on valuing soil as an ecosystem services, translating research across both temporal and spatial scales, sharing and using data already available for other purposes, incorporating existing and new technologies from other disciplines, collaborating across discipline, and translating soil research into information for stakeholders and end users. Through the outcomes of these approaches, soil can enhance the productivity from the same confined land, increase profitability,conserve natural resource, reduce the negative impact on environment, enhance human nutrition and health,and enhance natural capital and the flow of ecosystem services. Soil is the central dogma, final frontier and new engine for the era of sustainability development in the 21st century and thus soil environmental researches should be carried according to this main theme.</t>
-  </si>
-  <si>
-    <t>Zaks, David Philip Martin</t>
-  </si>
-  <si>
-    <t>Reducing negative environmental externalities from agricultural production: Methods, models, and policies</t>
-  </si>
-  <si>
-    <t>Sterk, Barbara</t>
-  </si>
-  <si>
-    <t>A Window of Opportunities : the Contributions of Land Use Modelling to Societal Learning</t>
-  </si>
-  <si>
-    <t>Kanshie, Tadesse Kippie</t>
-  </si>
-  <si>
-    <t>Five Thousand Years of Sustainability? : a Case Study on Gedeo Land Use (Southern Ethiopia)</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1607,7 @@
         <v>152</v>
       </c>
       <c r="C51" s="2">
-        <v>2010.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>153</v>
@@ -1684,7 +1621,7 @@
         <v>155</v>
       </c>
       <c r="C52" s="2">
-        <v>2022.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>156</v>
@@ -1698,7 +1635,7 @@
         <v>158</v>
       </c>
       <c r="C53" s="2">
-        <v>2016.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>159</v>
@@ -1712,7 +1649,7 @@
         <v>161</v>
       </c>
       <c r="C54" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -1754,7 +1691,7 @@
         <v>170</v>
       </c>
       <c r="C57" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>171</v>
@@ -1768,7 +1705,7 @@
         <v>173</v>
       </c>
       <c r="C58" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>174</v>
@@ -1782,7 +1719,7 @@
         <v>176</v>
       </c>
       <c r="C59" s="2">
-        <v>2020.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>177</v>
@@ -1796,7 +1733,7 @@
         <v>179</v>
       </c>
       <c r="C60" s="2">
-        <v>2014.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>180</v>
@@ -1810,7 +1747,7 @@
         <v>182</v>
       </c>
       <c r="C61" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>183</v>
@@ -1824,7 +1761,7 @@
         <v>185</v>
       </c>
       <c r="C62" s="2">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>186</v>
@@ -1838,7 +1775,7 @@
         <v>188</v>
       </c>
       <c r="C63" s="2">
-        <v>2023.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>189</v>
@@ -1852,7 +1789,7 @@
         <v>191</v>
       </c>
       <c r="C64" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>192</v>
@@ -1866,7 +1803,7 @@
         <v>194</v>
       </c>
       <c r="C65" s="2">
-        <v>2020.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>195</v>
@@ -1880,7 +1817,7 @@
         <v>197</v>
       </c>
       <c r="C66" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>198</v>
@@ -1894,7 +1831,7 @@
         <v>200</v>
       </c>
       <c r="C67" s="2">
-        <v>2022.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>201</v>
@@ -1908,151 +1845,61 @@
         <v>203</v>
       </c>
       <c r="C68" s="2">
-        <v>2022.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="2">
-        <v>2022.0</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C70" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C71" s="2">
-        <v>2017.0</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C72" s="2">
-        <v>2017.0</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="D72" s="1"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C73" s="2">
-        <v>2013.0</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C74" s="2">
-        <v>2012.0</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C75" s="2">
-        <v>2011.0</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C76" s="2">
-        <v>2010.0</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C77" s="2">
-        <v>2007.0</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C78" s="2">
-        <v>2002.0</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="1"/>
@@ -6608,56 +6455,6 @@
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="D989" s="1"/>
-    </row>
-    <row r="990" ht="12.75" customHeight="1">
-      <c r="A990" s="1"/>
-      <c r="B990" s="1"/>
-      <c r="D990" s="1"/>
-    </row>
-    <row r="991" ht="12.75" customHeight="1">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="D991" s="1"/>
-    </row>
-    <row r="992" ht="12.75" customHeight="1">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="D992" s="1"/>
-    </row>
-    <row r="993" ht="12.75" customHeight="1">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="D993" s="1"/>
-    </row>
-    <row r="994" ht="12.75" customHeight="1">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="D994" s="1"/>
-    </row>
-    <row r="995" ht="12.75" customHeight="1">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="D995" s="1"/>
-    </row>
-    <row r="996" ht="12.75" customHeight="1">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="D996" s="1"/>
-    </row>
-    <row r="997" ht="12.75" customHeight="1">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="D997" s="1"/>
-    </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="D998" s="1"/>
-    </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="D999" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
